--- a/data/trans_dic/P7_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P7_R-Edad-trans_dic.xlsx
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,58; 4,7</t>
+          <t>1,75; 4,56</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,93; 5,07</t>
+          <t>1,94; 5,31</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,33; 4,6</t>
+          <t>1,26; 4,6</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,78; 8,17</t>
+          <t>1,02; 7,69</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4,73; 9,07</t>
+          <t>4,56; 9,29</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,81; 8,43</t>
+          <t>3,74; 8,33</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,95; 3,97</t>
+          <t>1,17; 3,86</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,9; 11,06</t>
+          <t>3,02; 11,08</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3,48; 6,3</t>
+          <t>3,48; 6,35</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>3,19; 5,97</t>
+          <t>3,21; 5,98</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1,51; 3,76</t>
+          <t>1,52; 3,7</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>2,56; 7,54</t>
+          <t>2,42; 7,5</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,07; 6,07</t>
+          <t>2,95; 6,11</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,18; 8,13</t>
+          <t>4,32; 7,84</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,79; 6,28</t>
+          <t>2,69; 5,94</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,36; 10,3</t>
+          <t>4,2; 10,07</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>9,61; 15,04</t>
+          <t>9,42; 15,2</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>7,05; 11,82</t>
+          <t>7,1; 12,01</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,95; 9,36</t>
+          <t>5,08; 9,34</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,69; 6,55</t>
+          <t>2,66; 6,37</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>6,45; 9,67</t>
+          <t>6,48; 9,44</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>6,14; 9,18</t>
+          <t>6,19; 9,37</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>4,27; 6,95</t>
+          <t>4,33; 6,92</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>3,97; 7,23</t>
+          <t>3,85; 7,27</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,3; 11,94</t>
+          <t>7,28; 12,13</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,13; 11,82</t>
+          <t>7,1; 11,66</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,9; 8,77</t>
+          <t>4,99; 9,09</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5,63; 10,28</t>
+          <t>5,5; 10,37</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>14,82; 20,72</t>
+          <t>14,51; 20,5</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>14,08; 20,33</t>
+          <t>14,3; 19,81</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>8,21; 12,94</t>
+          <t>8,26; 12,83</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>7,42; 11,55</t>
+          <t>7,43; 11,51</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>11,77; 15,69</t>
+          <t>11,81; 15,52</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>11,3; 15,07</t>
+          <t>11,34; 14,88</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>7,21; 10,37</t>
+          <t>7,12; 10,15</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>7,23; 10,4</t>
+          <t>7,21; 10,43</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>10,09; 16,67</t>
+          <t>10,17; 16,63</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>11,77; 17,99</t>
+          <t>11,98; 18,19</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>15,03; 21,52</t>
+          <t>15,13; 21,11</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>11,18; 18,16</t>
+          <t>11,55; 18,32</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>24,62; 32,08</t>
+          <t>24,31; 32,4</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>20,06; 27,49</t>
+          <t>20,55; 27,7</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>17,01; 23,4</t>
+          <t>16,99; 23,1</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>15,39; 19,91</t>
+          <t>15,59; 20,2</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>18,27; 23,33</t>
+          <t>18,08; 23,37</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>17,03; 21,91</t>
+          <t>16,98; 21,92</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>16,76; 21,37</t>
+          <t>16,85; 21,34</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>14,06; 18,34</t>
+          <t>14,26; 18,49</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>24,51; 33,36</t>
+          <t>24,47; 33,77</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>20,35; 28,75</t>
+          <t>20,03; 28,86</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>20,22; 28,82</t>
+          <t>20,83; 28,8</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>23,79; 30,96</t>
+          <t>23,77; 30,75</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>35,4; 45,18</t>
+          <t>35,26; 45,41</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>33,15; 42,82</t>
+          <t>33,12; 43,31</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>30,69; 40,05</t>
+          <t>30,89; 39,99</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>29,52; 35,64</t>
+          <t>29,68; 35,56</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>31,38; 38,03</t>
+          <t>31,15; 38,01</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>28,28; 34,8</t>
+          <t>28,04; 34,93</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>26,94; 33,23</t>
+          <t>26,88; 32,94</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>27,51; 31,91</t>
+          <t>27,66; 32,15</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>40,98; 49,57</t>
+          <t>40,58; 49,49</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>41,69; 50,68</t>
+          <t>41,14; 50,32</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>33,09; 40,58</t>
+          <t>32,92; 40,19</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>32,49; 38,56</t>
+          <t>32,12; 38,09</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>60,81; 67,59</t>
+          <t>60,86; 67,77</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>54,4; 61,99</t>
+          <t>53,83; 61,83</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>51,35; 58,69</t>
+          <t>51,37; 59,02</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>33,51; 51,98</t>
+          <t>31,86; 51,93</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>52,83; 58,59</t>
+          <t>53,1; 58,83</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>50,11; 55,72</t>
+          <t>49,98; 55,55</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>44,27; 49,5</t>
+          <t>44,23; 49,75</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>32,76; 44,98</t>
+          <t>32,59; 44,91</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>14,38; 16,93</t>
+          <t>14,49; 17,01</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>15,33; 17,99</t>
+          <t>15,35; 18,06</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>14,31; 16,93</t>
+          <t>14,48; 16,88</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>16,43; 19,2</t>
+          <t>16,23; 19,09</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>27,11; 30,3</t>
+          <t>27,14; 30,26</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>25,24; 28,32</t>
+          <t>25,17; 28,22</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>22,37; 25,34</t>
+          <t>22,31; 25,35</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>20,9; 24,72</t>
+          <t>20,77; 24,8</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>21,18; 23,25</t>
+          <t>21,36; 23,4</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>20,78; 22,83</t>
+          <t>20,72; 22,83</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>18,92; 20,98</t>
+          <t>18,9; 20,89</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>19,45; 21,7</t>
+          <t>19,49; 21,8</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P7_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P7_R-Edad-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,75; 4,56</t>
+          <t>1,69; 4,89</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,94; 5,31</t>
+          <t>1,89; 5,23</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,26; 4,6</t>
+          <t>1,38; 4,4</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4,56; 9,29</t>
+          <t>4,63; 9,23</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,74; 8,33</t>
+          <t>3,68; 8,32</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,17; 3,86</t>
+          <t>0,94; 3,86</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3,48; 6,35</t>
+          <t>3,48; 6,28</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>3,21; 5,98</t>
+          <t>3,25; 6,0</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1,52; 3,7</t>
+          <t>1,56; 3,85</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,95; 6,11</t>
+          <t>3,02; 6,07</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,32; 7,84</t>
+          <t>4,29; 7,83</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,69; 5,94</t>
+          <t>2,77; 6,26</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>9,42; 15,2</t>
+          <t>9,64; 14,82</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>7,1; 12,01</t>
+          <t>7,34; 11,85</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>5,08; 9,34</t>
+          <t>4,75; 9,19</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>6,48; 9,44</t>
+          <t>6,5; 9,47</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>6,19; 9,37</t>
+          <t>6,12; 9,19</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>4,33; 6,92</t>
+          <t>4,26; 7,0</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,28; 12,13</t>
+          <t>7,38; 12,3</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,1; 11,66</t>
+          <t>7,12; 11,64</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,99; 9,09</t>
+          <t>4,96; 8,78</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>14,51; 20,5</t>
+          <t>14,87; 20,71</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>14,3; 19,81</t>
+          <t>14,03; 19,7</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>8,26; 12,83</t>
+          <t>8,21; 13,29</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>11,81; 15,52</t>
+          <t>11,81; 15,59</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>11,34; 14,88</t>
+          <t>11,27; 14,97</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>7,12; 10,15</t>
+          <t>7,14; 10,23</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>10,17; 16,63</t>
+          <t>10,31; 16,99</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>11,98; 18,19</t>
+          <t>12,2; 18,23</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>15,13; 21,11</t>
+          <t>15,22; 21,51</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>24,31; 32,4</t>
+          <t>24,17; 32,2</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>20,55; 27,7</t>
+          <t>20,44; 27,79</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>16,99; 23,1</t>
+          <t>16,54; 23,09</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>18,08; 23,37</t>
+          <t>18,13; 23,5</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>16,98; 21,92</t>
+          <t>17,12; 21,91</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>16,85; 21,34</t>
+          <t>16,92; 21,39</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>24,47; 33,77</t>
+          <t>24,57; 33,63</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>20,03; 28,86</t>
+          <t>20,49; 29,12</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>20,83; 28,8</t>
+          <t>20,64; 28,86</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>35,26; 45,41</t>
+          <t>35,33; 45,22</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>33,12; 43,31</t>
+          <t>33,2; 42,72</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>30,89; 39,99</t>
+          <t>30,82; 39,78</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,17 +1324,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>31,15; 38,01</t>
+          <t>31,35; 38,73</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>28,04; 34,93</t>
+          <t>28,51; 34,9</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>26,88; 32,94</t>
+          <t>27,01; 33,02</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1424,17 +1424,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>40,58; 49,49</t>
+          <t>40,68; 49,36</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>41,14; 50,32</t>
+          <t>41,39; 50,89</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>32,92; 40,19</t>
+          <t>32,84; 40,29</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,17 +1444,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>60,86; 67,77</t>
+          <t>59,91; 67,42</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>53,83; 61,83</t>
+          <t>54,6; 62,03</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>51,37; 59,02</t>
+          <t>50,8; 58,77</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1464,17 +1464,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>53,1; 58,83</t>
+          <t>52,79; 58,83</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>49,98; 55,55</t>
+          <t>50,25; 55,88</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>44,23; 49,75</t>
+          <t>44,48; 50,27</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -1564,17 +1564,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>14,49; 17,01</t>
+          <t>14,63; 17,09</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>15,35; 18,06</t>
+          <t>15,29; 18,01</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>14,48; 16,88</t>
+          <t>14,38; 16,86</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1584,17 +1584,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>27,14; 30,26</t>
+          <t>27,13; 30,22</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>25,17; 28,22</t>
+          <t>25,27; 28,17</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>22,31; 25,35</t>
+          <t>22,37; 25,28</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1604,17 +1604,17 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>21,36; 23,4</t>
+          <t>21,33; 23,35</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>20,72; 22,83</t>
+          <t>20,79; 22,69</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>18,9; 20,89</t>
+          <t>18,99; 20,95</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">

--- a/data/trans_dic/P7_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P7_R-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,69; 4,89</t>
+          <t>1,58; 4,7</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,89; 5,23</t>
+          <t>1,93; 5,07</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,38; 4,4</t>
+          <t>1,33; 4,6</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,02; 7,69</t>
+          <t>0,78; 8,17</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4,63; 9,23</t>
+          <t>4,73; 9,07</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,68; 8,32</t>
+          <t>3,81; 8,43</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,94; 3,86</t>
+          <t>0,95; 3,97</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,02; 11,08</t>
+          <t>2,9; 11,06</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3,48; 6,28</t>
+          <t>3,48; 6,3</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>3,25; 6,0</t>
+          <t>3,19; 5,97</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1,56; 3,85</t>
+          <t>1,51; 3,76</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>2,42; 7,5</t>
+          <t>2,56; 7,54</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,02; 6,07</t>
+          <t>3,07; 6,07</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,29; 7,83</t>
+          <t>4,18; 8,13</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,77; 6,26</t>
+          <t>2,79; 6,28</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,2; 10,07</t>
+          <t>4,36; 10,3</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>9,64; 14,82</t>
+          <t>9,61; 15,04</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>7,34; 11,85</t>
+          <t>7,05; 11,82</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,75; 9,19</t>
+          <t>4,95; 9,36</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,66; 6,37</t>
+          <t>2,69; 6,55</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>6,5; 9,47</t>
+          <t>6,45; 9,67</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>6,12; 9,19</t>
+          <t>6,14; 9,18</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>4,26; 7,0</t>
+          <t>4,27; 6,95</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>3,85; 7,27</t>
+          <t>3,97; 7,23</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,38; 12,3</t>
+          <t>7,3; 11,94</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,12; 11,64</t>
+          <t>7,13; 11,82</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,96; 8,78</t>
+          <t>4,9; 8,77</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5,5; 10,37</t>
+          <t>5,63; 10,28</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>14,87; 20,71</t>
+          <t>14,82; 20,72</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>14,03; 19,7</t>
+          <t>14,08; 20,33</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>8,21; 13,29</t>
+          <t>8,21; 12,94</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>7,43; 11,51</t>
+          <t>7,42; 11,55</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>11,81; 15,59</t>
+          <t>11,77; 15,69</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>11,27; 14,97</t>
+          <t>11,3; 15,07</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>7,14; 10,23</t>
+          <t>7,21; 10,37</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>7,21; 10,43</t>
+          <t>7,23; 10,4</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>10,31; 16,99</t>
+          <t>10,09; 16,67</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>12,2; 18,23</t>
+          <t>11,77; 17,99</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>15,22; 21,51</t>
+          <t>15,03; 21,52</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>11,55; 18,32</t>
+          <t>11,18; 18,16</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>24,17; 32,2</t>
+          <t>24,62; 32,08</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>20,44; 27,79</t>
+          <t>20,06; 27,49</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>16,54; 23,09</t>
+          <t>17,01; 23,4</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>15,59; 20,2</t>
+          <t>15,39; 19,91</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>18,13; 23,5</t>
+          <t>18,27; 23,33</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>17,12; 21,91</t>
+          <t>17,03; 21,91</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>16,92; 21,39</t>
+          <t>16,76; 21,37</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>14,26; 18,49</t>
+          <t>14,06; 18,34</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>24,57; 33,63</t>
+          <t>24,51; 33,36</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>20,49; 29,12</t>
+          <t>20,35; 28,75</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>20,64; 28,86</t>
+          <t>20,22; 28,82</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>23,77; 30,75</t>
+          <t>23,79; 30,96</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>35,33; 45,22</t>
+          <t>35,4; 45,18</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>33,2; 42,72</t>
+          <t>33,15; 42,82</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>30,82; 39,78</t>
+          <t>30,69; 40,05</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>29,68; 35,56</t>
+          <t>29,52; 35,64</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>31,35; 38,73</t>
+          <t>31,38; 38,03</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>28,51; 34,9</t>
+          <t>28,28; 34,8</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>27,01; 33,02</t>
+          <t>26,94; 33,23</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>27,66; 32,15</t>
+          <t>27,51; 31,91</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>40,68; 49,36</t>
+          <t>40,98; 49,57</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>41,39; 50,89</t>
+          <t>41,69; 50,68</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>32,84; 40,29</t>
+          <t>33,09; 40,58</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>32,12; 38,09</t>
+          <t>32,49; 38,56</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>59,91; 67,42</t>
+          <t>60,81; 67,59</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>54,6; 62,03</t>
+          <t>54,4; 61,99</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>50,8; 58,77</t>
+          <t>51,35; 58,69</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>31,86; 51,93</t>
+          <t>33,51; 51,98</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>52,79; 58,83</t>
+          <t>52,83; 58,59</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>50,25; 55,88</t>
+          <t>50,11; 55,72</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>44,48; 50,27</t>
+          <t>44,27; 49,5</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>32,59; 44,91</t>
+          <t>32,76; 44,98</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>14,63; 17,09</t>
+          <t>14,38; 16,93</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>15,29; 18,01</t>
+          <t>15,33; 17,99</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>14,38; 16,86</t>
+          <t>14,31; 16,93</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>16,23; 19,09</t>
+          <t>16,43; 19,2</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>27,13; 30,22</t>
+          <t>27,11; 30,3</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>25,27; 28,17</t>
+          <t>25,24; 28,32</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>22,37; 25,28</t>
+          <t>22,37; 25,34</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>20,77; 24,8</t>
+          <t>20,9; 24,72</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>21,33; 23,35</t>
+          <t>21,18; 23,25</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>20,79; 22,69</t>
+          <t>20,78; 22,83</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>18,99; 20,95</t>
+          <t>18,92; 20,98</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>19,49; 21,8</t>
+          <t>19,45; 21,7</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P7_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P7_R-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>3,2%</t>
+          <t>3,23%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>6,03%</t>
+          <t>6,95%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>4,57%</t>
+          <t>4,87%</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,78; 8,17</t>
+          <t>0,93; 8,41</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,9; 11,06</t>
+          <t>3,48; 13,75</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,14 +779,14 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>2,56; 7,54</t>
+          <t>2,68; 8,23</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>6,76%</t>
+          <t>6,96%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>4,26%</t>
+          <t>3,92%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>5,42%</t>
+          <t>5,3%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,36; 10,3</t>
+          <t>4,36; 10,69</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,69; 6,55</t>
+          <t>2,22; 6,1</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,14 +919,14 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>3,97; 7,23</t>
+          <t>3,65; 7,19</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>7,71%</t>
+          <t>7,75%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>9,49%</t>
+          <t>9,16%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>8,64%</t>
+          <t>8,49%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5,63; 10,28</t>
+          <t>5,62; 10,29</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>7,42; 11,55</t>
+          <t>6,7; 11,27</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,14 +1059,14 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>7,23; 10,4</t>
+          <t>6,95; 10,27</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>14,96%</t>
+          <t>11,77%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>17,7%</t>
+          <t>17,38%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>16,35%</t>
+          <t>14,27%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>11,18; 18,16</t>
+          <t>5,09; 17,37</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>15,39; 19,91</t>
+          <t>14,36; 19,61</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,14 +1199,14 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>14,06; 18,34</t>
+          <t>8,75; 17,54</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>27,03%</t>
+          <t>27,34%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>32,63%</t>
+          <t>32,56%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>29,83%</t>
+          <t>29,92%</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>23,79; 30,96</t>
+          <t>24,05; 31,19</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>29,52; 35,64</t>
+          <t>29,46; 35,46</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,14 +1339,14 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>27,51; 31,91</t>
+          <t>27,64; 32,04</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>45,04%</t>
+          <t>38,0%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>45,94%</t>
+          <t>37,07%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>36,57%</t>
+          <t>30,19%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>35,19%</t>
+          <t>27,98%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>64,03%</t>
+          <t>58,49%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>58,1%</t>
+          <t>47,99%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>55,1%</t>
+          <t>46,53%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>45,55%</t>
+          <t>26,96%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>55,94%</t>
+          <t>49,06%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>52,88%</t>
+          <t>42,9%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>47,08%</t>
+          <t>38,84%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>41,36%</t>
+          <t>27,35%</t>
         </is>
       </c>
     </row>
@@ -1424,69 +1424,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>40,98; 49,57</t>
+          <t>32,01; 43,38</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>41,69; 50,68</t>
+          <t>31,7; 43,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>33,09; 40,58</t>
+          <t>25,44; 35,68</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>32,49; 38,56</t>
+          <t>24,07; 31,43</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>60,81; 67,59</t>
+          <t>53,25; 63,7</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>54,4; 61,99</t>
+          <t>42,92; 53,82</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>51,35; 58,69</t>
+          <t>40,93; 51,68</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>33,51; 51,98</t>
+          <t>9,59; 41,81</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>52,83; 58,59</t>
+          <t>45,5; 52,94</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>50,11; 55,72</t>
+          <t>39,23; 46,82</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>44,27; 49,5</t>
+          <t>35,15; 42,55</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>32,76; 44,98</t>
+          <t>13,02; 35,28</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>15,64%</t>
+          <t>54,87%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>16,67%</t>
+          <t>56,9%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>15,7%</t>
+          <t>44,9%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>17,73%</t>
+          <t>44,36%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>28,64%</t>
+          <t>69,72%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>26,69%</t>
+          <t>67,28%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>23,88%</t>
+          <t>63,18%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>23,34%</t>
+          <t>60,5%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>22,24%</t>
+          <t>63,99%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>21,77%</t>
+          <t>63,22%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>19,88%</t>
+          <t>56,02%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>20,71%</t>
+          <t>54,06%</t>
         </is>
       </c>
     </row>
@@ -1564,74 +1564,214 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>48,13; 61,43</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>50,09; 63,29</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>39,34; 51,06</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>39,76; 49,08</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>64,1; 74,73</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>62,44; 72,3</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>57,13; 68,09</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>56,98; 63,61</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>60,3; 68,18</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>59,12; 67,1</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>51,85; 60,18</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>50,98; 56,77</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>15,64%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>16,67%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>15,7%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>16,48%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>28,64%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>26,69%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>23,88%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>22,09%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>22,24%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>21,77%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>19,88%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>19,39%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>14,38; 16,93</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>15,33; 17,99</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>14,31; 16,93</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>16,43; 19,2</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>13,19; 18,26</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>27,11; 30,3</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>25,24; 28,32</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>22,37; 25,34</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>20,9; 24,72</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>17,48; 24,05</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
         <is>
           <t>21,18; 23,25</t>
         </is>
       </c>
-      <c r="L17" s="2" t="inlineStr">
+      <c r="L19" s="2" t="inlineStr">
         <is>
           <t>20,78; 22,83</t>
         </is>
       </c>
-      <c r="M17" s="2" t="inlineStr">
+      <c r="M19" s="2" t="inlineStr">
         <is>
           <t>18,92; 20,98</t>
         </is>
       </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>19,45; 21,7</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>16,75; 20,78</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1642,6 +1782,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/P7_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P7_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,58; 4,7</t>
+          <t>1,58; 4,68</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,93; 5,07</t>
+          <t>1,89; 5,2</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,33; 4,6</t>
+          <t>1,43; 4,6</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,93; 8,41</t>
+          <t>1,03; 7,88</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4,73; 9,07</t>
+          <t>4,73; 9,23</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,81; 8,43</t>
+          <t>3,85; 8,56</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,95; 3,97</t>
+          <t>1,18; 4,04</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,48; 13,75</t>
+          <t>3,36; 13,41</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3,48; 6,3</t>
+          <t>3,52; 6,46</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>3,19; 5,97</t>
+          <t>3,23; 6,15</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1,51; 3,76</t>
+          <t>1,44; 3,55</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>2,68; 8,23</t>
+          <t>2,62; 8,15</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,07; 6,07</t>
+          <t>2,95; 6,08</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,18; 8,13</t>
+          <t>4,23; 8,06</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,79; 6,28</t>
+          <t>2,69; 6,12</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,36; 10,69</t>
+          <t>4,42; 10,47</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>9,61; 15,04</t>
+          <t>9,5; 15,06</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>7,05; 11,82</t>
+          <t>7,06; 12,14</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,95; 9,36</t>
+          <t>5,06; 9,31</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,22; 6,1</t>
+          <t>2,13; 6,24</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>6,45; 9,67</t>
+          <t>6,44; 9,38</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>6,14; 9,18</t>
+          <t>6,09; 9,26</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>4,27; 6,95</t>
+          <t>4,22; 6,85</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>3,65; 7,19</t>
+          <t>3,65; 7,39</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,3; 11,94</t>
+          <t>7,19; 12,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,13; 11,82</t>
+          <t>7,15; 11,76</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,9; 8,77</t>
+          <t>4,97; 8,86</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5,62; 10,29</t>
+          <t>5,58; 10,5</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>14,82; 20,72</t>
+          <t>14,42; 20,4</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>14,08; 20,33</t>
+          <t>13,95; 19,82</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>8,21; 12,94</t>
+          <t>8,04; 12,65</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>6,7; 11,27</t>
+          <t>6,93; 11,49</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>11,77; 15,69</t>
+          <t>11,74; 15,56</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>11,3; 15,07</t>
+          <t>11,32; 15,05</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>7,21; 10,37</t>
+          <t>7,2; 10,22</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>6,95; 10,27</t>
+          <t>6,71; 10,12</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>10,09; 16,67</t>
+          <t>10,07; 16,4</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>11,77; 17,99</t>
+          <t>11,81; 18,13</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>15,03; 21,52</t>
+          <t>14,99; 21,18</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,09; 17,37</t>
+          <t>4,63; 17,13</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>24,62; 32,08</t>
+          <t>24,15; 32,01</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>20,06; 27,49</t>
+          <t>20,27; 27,57</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>17,01; 23,4</t>
+          <t>16,69; 23,38</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>14,36; 19,61</t>
+          <t>14,26; 19,74</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>18,27; 23,33</t>
+          <t>17,93; 23,25</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>17,03; 21,91</t>
+          <t>17,18; 21,86</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>16,76; 21,37</t>
+          <t>16,88; 21,28</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>8,75; 17,54</t>
+          <t>8,36; 17,51</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>24,51; 33,36</t>
+          <t>24,37; 33,52</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>20,35; 28,75</t>
+          <t>20,44; 29,21</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>20,22; 28,82</t>
+          <t>20,45; 29,18</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>24,05; 31,19</t>
+          <t>24,04; 31,36</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>35,4; 45,18</t>
+          <t>35,51; 45,2</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>33,15; 42,82</t>
+          <t>32,99; 42,37</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>30,69; 40,05</t>
+          <t>31,01; 40,17</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>29,46; 35,46</t>
+          <t>29,6; 35,34</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>31,38; 38,03</t>
+          <t>31,47; 37,93</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>28,28; 34,8</t>
+          <t>28,01; 34,76</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>26,94; 33,23</t>
+          <t>27,07; 33,56</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>27,64; 32,04</t>
+          <t>27,59; 32,43</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>32,01; 43,38</t>
+          <t>32,42; 43,61</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>31,7; 43,0</t>
+          <t>31,47; 42,63</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>25,44; 35,68</t>
+          <t>25,55; 35,9</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>24,07; 31,43</t>
+          <t>24,01; 31,67</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>53,25; 63,7</t>
+          <t>53,26; 63,42</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>42,92; 53,82</t>
+          <t>42,97; 53,61</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>40,93; 51,68</t>
+          <t>41,4; 51,76</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>9,59; 41,81</t>
+          <t>11,2; 41,88</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>45,5; 52,94</t>
+          <t>45,26; 52,86</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>39,23; 46,82</t>
+          <t>39,1; 46,8</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>35,15; 42,55</t>
+          <t>35,28; 42,35</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>13,02; 35,28</t>
+          <t>14,59; 35,62</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>48,13; 61,43</t>
+          <t>47,87; 61,44</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>50,09; 63,29</t>
+          <t>50,0; 63,68</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>39,34; 51,06</t>
+          <t>39,51; 50,59</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>39,76; 49,08</t>
+          <t>39,64; 48,9</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>64,1; 74,73</t>
+          <t>63,6; 74,39</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>62,44; 72,3</t>
+          <t>62,35; 72,29</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>57,13; 68,09</t>
+          <t>58,11; 69,16</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>56,98; 63,61</t>
+          <t>57,18; 63,99</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>60,3; 68,18</t>
+          <t>59,51; 68,11</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>59,12; 67,1</t>
+          <t>59,31; 67,36</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>51,85; 60,18</t>
+          <t>51,96; 60,4</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>50,98; 56,77</t>
+          <t>51,58; 56,98</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>14,38; 16,93</t>
+          <t>14,44; 16,89</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>15,33; 17,99</t>
+          <t>15,33; 18,12</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>14,31; 16,93</t>
+          <t>14,37; 16,95</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>13,19; 18,26</t>
+          <t>12,81; 18,25</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>27,11; 30,3</t>
+          <t>26,94; 30,19</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>25,24; 28,32</t>
+          <t>25,08; 28,21</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>22,37; 25,34</t>
+          <t>22,34; 25,42</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>17,48; 24,05</t>
+          <t>17,85; 24,02</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>21,18; 23,25</t>
+          <t>21,21; 23,28</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>20,78; 22,83</t>
+          <t>20,7; 22,78</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>18,92; 20,98</t>
+          <t>18,94; 20,91</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>16,75; 20,78</t>
+          <t>17,03; 20,9</t>
         </is>
       </c>
     </row>
@@ -1787,4 +1788,1839 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con salud general regular o mala</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>14179</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>14672</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>11486</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>12938</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>31292</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>24859</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>8491</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>21763</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>45471</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>39532</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>19976</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>34701</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>7822; 23118</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>8576; 23581</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>5978; 19264</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>4102; 31499</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>22093; 43128</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>16585; 36813</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>4654; 16001</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>10538; 42001</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>33876; 62091</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>28581; 54365</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>11763; 28922</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>18702; 58131</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>31994</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>40549</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>24906</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>29488</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>75167</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>57252</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>38561</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>20082</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>107161</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>97801</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>63467</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>49570</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>21708; 44729</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>29004; 55261</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>15861; 36117</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>18716; 44352</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>59399; 94229</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>43020; 73987</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>28543; 52492</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>10900; 31972</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>87683; 127666</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>78850; 119887</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>48686; 79058</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>34110; 69177</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>172</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>171</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>60729</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>62668</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>45222</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>41544</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>120429</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>119090</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>69234</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>54185</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>181158</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>181758</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>114456</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>95729</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>45823; 76502</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>48680; 80068</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>33284; 59269</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>29930; 56317</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>99485; 140738</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>98726; 140312</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>53164; 83678</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>41010; 67940</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>155799; 206560</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>157177; 209053</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>95787; 135977</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>75632; 114114</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>213</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>203</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>209</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>222</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>317</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>67564</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>90614</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>116719</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>104458</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>145029</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>146556</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>128765</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>123882</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>212593</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>237171</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>245483</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>228340</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>52293; 85116</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>72231; 110874</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>96566; 136427</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>41093; 152061</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>124504; 165065</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>124882; 169881</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>108347; 151776</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>101660; 140758</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>185571; 240614</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>210964; 268349</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>218277; 275156</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>133810; 280334</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>156</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>323</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>274</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>253</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>257</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>502</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>111606</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>104909</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>117750</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>153451</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>162428</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>169452</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>173728</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>178383</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>274034</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>274360</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>291478</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>331834</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>94252; 129642</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>87763; 125442</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>97533; 139162</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>134894; 175983</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>143456; 182594</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>147709; 189746</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>153733; 199123</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>162184; 193623</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>248806; 299904</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>245751; 304889</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>263269; 326382</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>305960; 359736</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>162</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>216</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>167</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>166</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>337</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>332</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>269</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>263</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>499</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>111170</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>114465</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>100946</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>103024</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>200583</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>169441</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>174826</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>164016</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>311753</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>283906</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>275772</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>267040</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>94850; 127598</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>97169; 131635</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>85421; 120036</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>88404; 116589</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>182662; 217492</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>151712; 189256</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>155566; 194461</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>68160; 254777</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>287655; 335945</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>258818; 309763</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>250487; 300744</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>142516; 347802</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>237</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>188</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>539</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>322</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>362</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>322</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>749</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>115165</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>142162</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>114977</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>125421</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>232785</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>261692</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>251511</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>257611</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>347950</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>403854</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>366487</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>383032</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>100464; 128962</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>124936; 159109</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>101187; 129564</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>112084; 138273</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>212366; 248396</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>242519; 281186</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>231305; 275286</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>243477; 272475</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>323603; 370393</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>378918; 430287</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>339931; 395141</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>365517; 403739</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>512</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>518</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>516</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>721</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>936</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>878</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>742</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>1537</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>1448</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>1396</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>1258</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>2258</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>512408</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>570039</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>532005</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>570325</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>967712</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>948343</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>845115</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>819922</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>1480120</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>1518382</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>1377120</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>1390247</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>473016; 553293</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>524226; 619743</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>486983; 574639</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>443052; 631334</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>910198; 1020177</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>891178; 1002317</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>790681; 899567</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>662368; 891380</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>1411771; 1549058</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>1443221; 1588498</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>1312133; 1448582</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>1221613; 1499044</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>